--- a/Stocks/RELIANCE.xlsx
+++ b/Stocks/RELIANCE.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="35">
   <si>
     <t>Scrip</t>
   </si>
@@ -601,7 +601,7 @@
         <v>1380.1000000000001</v>
       </c>
       <c r="H2" t="e">
-        <f t="array" ref="H2:H82">_xll.TA_EMA(G2:G82,3)</f>
+        <f t="array" ref="H2:H107">_xll.TA_EMA(G2:G107,3)</f>
         <v>#N/A</v>
       </c>
       <c r="I2" t="e">
@@ -609,11 +609,11 @@
         <v>#N/A</v>
       </c>
       <c r="J2" t="e">
-        <f t="array" ref="J2:J82">_xll.TA_EMA(D2:D82,8)</f>
+        <f t="array" ref="J2:J107">_xll.TA_EMA(D2:D107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="K2" t="e">
-        <f t="array" ref="K2:K82">_xll.TA_EMA(E2:E82,8)</f>
+        <f t="array" ref="K2:K107">_xll.TA_EMA(E2:E107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="L2" t="e">
@@ -625,7 +625,7 @@
         <v>#N/A</v>
       </c>
       <c r="N2" t="e">
-        <f t="array" ref="N2:N82">_xll.TA_RSI(F2:F82,5)</f>
+        <f t="array" ref="N2:N107">_xll.TA_RSI(F2:F107,5)</f>
         <v>#N/A</v>
       </c>
       <c r="O2" t="e">
@@ -657,11 +657,11 @@
         <v>#N/A</v>
       </c>
       <c r="V2" t="e">
-        <f t="array" ref="V2:V82">_xll.TA_EMA(F2:F82,12)</f>
+        <f t="array" ref="V2:V107">_xll.TA_EMA(F2:F107,12)</f>
         <v>#N/A</v>
       </c>
       <c r="W2" t="e">
-        <f t="array" ref="W2:W82">_xll.TA_EMA(F2:F82,26)</f>
+        <f t="array" ref="W2:W107">_xll.TA_EMA(F2:F107,26)</f>
         <v>#N/A</v>
       </c>
       <c r="X2" t="e">
@@ -669,7 +669,7 @@
         <v>#N/A</v>
       </c>
       <c r="Y2" t="e">
-        <f t="array" ref="Y2:Y82">_xll.TA_EMA(X2:X82,9)</f>
+        <f t="array" ref="Y2:Y107">_xll.TA_EMA(X2:X107,9)</f>
         <v>#N/A</v>
       </c>
       <c r="Z2" t="e">
@@ -8696,7 +8696,7 @@
         <v>1614.2761553410749</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" ref="I67:I82" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
+        <f t="shared" ref="I67:I107" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
         <v>UP</v>
       </c>
       <c r="J67">
@@ -8706,42 +8706,42 @@
         <v>1584.0928477037282</v>
       </c>
       <c r="L67" t="str">
-        <f t="shared" ref="L67:L82" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="L67:L107" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>UP</v>
       </c>
       <c r="M67" t="str">
-        <f t="shared" ref="M67:M82" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
+        <f t="shared" ref="M67:M107" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
         <v>UP</v>
       </c>
       <c r="N67">
         <v>69.318902625513644</v>
       </c>
       <c r="O67" t="str">
-        <f t="shared" ref="O67:O82" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
+        <f t="shared" ref="O67:O107" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
         <v>UP</v>
       </c>
       <c r="P67" t="str">
-        <f t="shared" ref="P67:P82" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
+        <f t="shared" ref="P67:P107" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
         <v>UP</v>
       </c>
       <c r="Q67">
-        <f t="shared" ref="Q67:Q82" si="25">F67-E67</f>
+        <f t="shared" ref="Q67:Q107" si="25">F67-E67</f>
         <v>17</v>
       </c>
       <c r="R67">
-        <f t="shared" ref="R67:R82" si="26">D67-E67</f>
+        <f t="shared" ref="R67:R107" si="26">D67-E67</f>
         <v>27.600000000000136</v>
       </c>
       <c r="S67">
-        <f t="shared" ref="S67:S82" si="27">Q67/R67</f>
+        <f t="shared" ref="S67:S107" si="27">Q67/R67</f>
         <v>0.61594202898550421</v>
       </c>
       <c r="T67" t="str">
-        <f t="shared" ref="T67:T82" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
+        <f t="shared" ref="T67:T107" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
         <v>No Indication</v>
       </c>
       <c r="U67" t="str">
-        <f t="shared" ref="U67:U82" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
+        <f t="shared" ref="U67:U107" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
         <v>No T+M+I</v>
       </c>
       <c r="V67">
@@ -8751,42 +8751,42 @@
         <v>1533.7406583308127</v>
       </c>
       <c r="X67">
-        <f t="shared" ref="X67:X82" si="30">V67-W67</f>
+        <f t="shared" ref="X67:X107" si="30">V67-W67</f>
         <v>51.543441536902264</v>
       </c>
       <c r="Y67">
         <v>50.323848856802698</v>
       </c>
       <c r="Z67" t="str">
-        <f t="shared" ref="Z67:Z82" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
+        <f t="shared" ref="Z67:Z107" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
         <v>UP</v>
       </c>
       <c r="AA67" t="str">
-        <f t="shared" ref="AA67:AA82" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
+        <f t="shared" ref="AA67:AA107" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
         <v>No TMIM</v>
       </c>
       <c r="AB67" t="str">
-        <f t="shared" ref="AB67:AB82" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="AB67:AB107" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>No Confirmation</v>
       </c>
       <c r="AC67" t="str">
-        <f t="shared" ref="AC67:AC82" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
+        <f t="shared" ref="AC67:AC107" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AD67" t="str">
-        <f t="shared" ref="AD67:AD82" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
+        <f t="shared" ref="AD67:AD107" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AE67" t="str">
-        <f t="shared" ref="AE67:AE82" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
+        <f t="shared" ref="AE67:AE107" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AF67" t="str">
-        <f t="shared" ref="AF67:AF82" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
+        <f t="shared" ref="AF67:AF107" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AG67" t="str">
-        <f t="shared" ref="AG67:AG82" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
+        <f t="shared" ref="AG67:AG107" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
     </row>
@@ -10606,93 +10606,3043 @@
       </c>
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B83" s="1"/>
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="1">
+        <v>42975</v>
+      </c>
+      <c r="C83">
+        <v>1579.05</v>
+      </c>
+      <c r="D83">
+        <v>1581.95</v>
+      </c>
+      <c r="E83">
+        <v>1561.2</v>
+      </c>
+      <c r="F83">
+        <v>1564.75</v>
+      </c>
+      <c r="G83">
+        <f>_xll.TA_TYPPRICE(D83,E83,F83)</f>
+        <v>1569.3</v>
+      </c>
+      <c r="H83">
+        <v>1571.3466724572042</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J83">
+        <v>1588.1371401789713</v>
+      </c>
+      <c r="K83">
+        <v>1560.8816932590692</v>
+      </c>
+      <c r="L83" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M83" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N83">
+        <v>42.28098294756068</v>
+      </c>
+      <c r="O83" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P83" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="25"/>
+        <v>3.5499999999999545</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="26"/>
+        <v>20.75</v>
+      </c>
+      <c r="S83">
+        <f t="shared" si="27"/>
+        <v>0.1710843373493954</v>
+      </c>
+      <c r="T83" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U83" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V83">
+        <v>1574.5687363923375</v>
+      </c>
+      <c r="W83">
+        <v>1565.6803763976006</v>
+      </c>
+      <c r="X83">
+        <f t="shared" si="30"/>
+        <v>8.8883599947369021</v>
+      </c>
+      <c r="Y83">
+        <v>17.452283253719333</v>
+      </c>
+      <c r="Z83" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA83" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB83" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC83" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD83" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE83" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF83" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG83" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B84" s="1"/>
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="1">
+        <v>42976</v>
+      </c>
+      <c r="C84">
+        <v>1561.85</v>
+      </c>
+      <c r="D84">
+        <v>1567.5</v>
+      </c>
+      <c r="E84">
+        <v>1530</v>
+      </c>
+      <c r="F84">
+        <v>1532.05</v>
+      </c>
+      <c r="G84">
+        <f>_xll.TA_TYPPRICE(D84,E84,F84)</f>
+        <v>1543.1833333333334</v>
+      </c>
+      <c r="H84">
+        <v>1557.2650028952689</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J84">
+        <v>1583.5511090280888</v>
+      </c>
+      <c r="K84">
+        <v>1554.0190947570538</v>
+      </c>
+      <c r="L84" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M84" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N84">
+        <v>25.698870937359619</v>
+      </c>
+      <c r="O84" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P84" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="25"/>
+        <v>2.0499999999999545</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="26"/>
+        <v>37.5</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="27"/>
+        <v>5.4666666666665455E-2</v>
+      </c>
+      <c r="T84" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U84" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V84">
+        <v>1568.0273923319778</v>
+      </c>
+      <c r="W84">
+        <v>1563.1892374051858</v>
+      </c>
+      <c r="X84">
+        <f t="shared" si="30"/>
+        <v>4.8381549267919581</v>
+      </c>
+      <c r="Y84">
+        <v>14.929457588333857</v>
+      </c>
+      <c r="Z84" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA84" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB84" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC84" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD84" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE84" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF84" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG84" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B85" s="1"/>
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="1">
+        <v>42977</v>
+      </c>
+      <c r="C85">
+        <v>1547.55</v>
+      </c>
+      <c r="D85">
+        <v>1568.8</v>
+      </c>
+      <c r="E85">
+        <v>1541.25</v>
+      </c>
+      <c r="F85">
+        <v>1563.5</v>
+      </c>
+      <c r="G85">
+        <f>_xll.TA_TYPPRICE(D85,E85,F85)</f>
+        <v>1557.8500000000001</v>
+      </c>
+      <c r="H85">
+        <v>1557.5575014476344</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J85">
+        <v>1580.2730847996247</v>
+      </c>
+      <c r="K85">
+        <v>1551.1815181443751</v>
+      </c>
+      <c r="L85" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M85" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N85">
+        <v>49.506388507276881</v>
+      </c>
+      <c r="O85" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P85" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="25"/>
+        <v>22.25</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="26"/>
+        <v>27.549999999999955</v>
+      </c>
+      <c r="S85">
+        <f t="shared" si="27"/>
+        <v>0.80762250453720641</v>
+      </c>
+      <c r="T85" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U85" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V85">
+        <v>1567.3308704347505</v>
+      </c>
+      <c r="W85">
+        <v>1563.2122568566535</v>
+      </c>
+      <c r="X85">
+        <f t="shared" si="30"/>
+        <v>4.1186135780969835</v>
+      </c>
+      <c r="Y85">
+        <v>12.767288786286482</v>
+      </c>
+      <c r="Z85" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA85" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB85" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC85" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD85" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE85" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF85" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG85" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B86" s="1"/>
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="1">
+        <v>42978</v>
+      </c>
+      <c r="C86">
+        <v>1575</v>
+      </c>
+      <c r="D86">
+        <v>1597.45</v>
+      </c>
+      <c r="E86">
+        <v>1574</v>
+      </c>
+      <c r="F86">
+        <v>1595.4</v>
+      </c>
+      <c r="G86">
+        <f>_xll.TA_TYPPRICE(D86,E86,F86)</f>
+        <v>1588.95</v>
+      </c>
+      <c r="H86">
+        <v>1573.2537507238171</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J86">
+        <v>1584.0901770663747</v>
+      </c>
+      <c r="K86">
+        <v>1556.2522918900695</v>
+      </c>
+      <c r="L86" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M86" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N86">
+        <v>64.093560149894429</v>
+      </c>
+      <c r="O86" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P86" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="25"/>
+        <v>21.400000000000091</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="26"/>
+        <v>23.450000000000045</v>
+      </c>
+      <c r="S86">
+        <f t="shared" si="27"/>
+        <v>0.91257995735607889</v>
+      </c>
+      <c r="T86" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U86" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V86">
+        <v>1571.6491980601736</v>
+      </c>
+      <c r="W86">
+        <v>1565.596534126531</v>
+      </c>
+      <c r="X86">
+        <f t="shared" si="30"/>
+        <v>6.0526639336426342</v>
+      </c>
+      <c r="Y86">
+        <v>11.424363815757712</v>
+      </c>
+      <c r="Z86" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA86" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB86" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC86" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD86" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE86" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF86" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG86" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B87" s="1"/>
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="1">
+        <v>42979</v>
+      </c>
+      <c r="C87">
+        <v>1599.85</v>
+      </c>
+      <c r="D87">
+        <v>1616.6</v>
+      </c>
+      <c r="E87">
+        <v>1599</v>
+      </c>
+      <c r="F87">
+        <v>1611.95</v>
+      </c>
+      <c r="G87">
+        <f>_xll.TA_TYPPRICE(D87,E87,F87)</f>
+        <v>1609.1833333333334</v>
+      </c>
+      <c r="H87">
+        <v>1591.2185420285753</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J87">
+        <v>1591.3145821627359</v>
+      </c>
+      <c r="K87">
+        <v>1565.7517825811651</v>
+      </c>
+      <c r="L87" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M87" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N87">
+        <v>69.759159335801385</v>
+      </c>
+      <c r="O87" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P87" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="25"/>
+        <v>12.950000000000045</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="26"/>
+        <v>17.599999999999909</v>
+      </c>
+      <c r="S87">
+        <f t="shared" si="27"/>
+        <v>0.73579545454546091</v>
+      </c>
+      <c r="T87" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U87" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V87">
+        <v>1577.8493214355315</v>
+      </c>
+      <c r="W87">
+        <v>1569.0301241912323</v>
+      </c>
+      <c r="X87">
+        <f t="shared" si="30"/>
+        <v>8.8191972442991755</v>
+      </c>
+      <c r="Y87">
+        <v>10.903330501466005</v>
+      </c>
+      <c r="Z87" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA87" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB87" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC87" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD87" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE87" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF87" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG87" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B88" s="1"/>
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" s="1">
+        <v>42982</v>
+      </c>
+      <c r="C88">
+        <v>1615.5</v>
+      </c>
+      <c r="D88">
+        <v>1636.15</v>
+      </c>
+      <c r="E88">
+        <v>1595.85</v>
+      </c>
+      <c r="F88">
+        <v>1615</v>
+      </c>
+      <c r="G88">
+        <f>_xll.TA_TYPPRICE(D88,E88,F88)</f>
+        <v>1615.6666666666667</v>
+      </c>
+      <c r="H88">
+        <v>1603.442604347621</v>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J88">
+        <v>1601.2780083487946</v>
+      </c>
+      <c r="K88">
+        <v>1572.4402753409063</v>
+      </c>
+      <c r="L88" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M88" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N88">
+        <v>70.819812596296245</v>
+      </c>
+      <c r="O88" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P88" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="25"/>
+        <v>19.150000000000091</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="26"/>
+        <v>40.300000000000182</v>
+      </c>
+      <c r="S88">
+        <f t="shared" si="27"/>
+        <v>0.47518610421836238</v>
+      </c>
+      <c r="T88" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U88" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V88">
+        <v>1583.5648104454497</v>
+      </c>
+      <c r="W88">
+        <v>1572.4353001770669</v>
+      </c>
+      <c r="X88">
+        <f t="shared" si="30"/>
+        <v>11.129510268382774</v>
+      </c>
+      <c r="Y88">
+        <v>10.94856645484936</v>
+      </c>
+      <c r="Z88" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA88" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB88" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC88" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD88" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE88" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF88" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG88" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B89" s="1"/>
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="1">
+        <v>42983</v>
+      </c>
+      <c r="C89">
+        <v>1630</v>
+      </c>
+      <c r="D89">
+        <v>1634.85</v>
+      </c>
+      <c r="E89">
+        <v>1621.05</v>
+      </c>
+      <c r="F89">
+        <v>1632.15</v>
+      </c>
+      <c r="G89">
+        <f>_xll.TA_TYPPRICE(D89,E89,F89)</f>
+        <v>1629.3499999999997</v>
+      </c>
+      <c r="H89">
+        <v>1616.3963021738105</v>
+      </c>
+      <c r="I89" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J89">
+        <v>1608.7384509379513</v>
+      </c>
+      <c r="K89">
+        <v>1583.2424363762605</v>
+      </c>
+      <c r="L89" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M89" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N89">
+        <v>76.590696758816392</v>
+      </c>
+      <c r="O89" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P89" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="25"/>
+        <v>11.100000000000136</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="26"/>
+        <v>13.799999999999955</v>
+      </c>
+      <c r="S89">
+        <f t="shared" si="27"/>
+        <v>0.80434782608696909</v>
+      </c>
+      <c r="T89" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U89" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V89">
+        <v>1591.0394549923035</v>
+      </c>
+      <c r="W89">
+        <v>1576.858611275062</v>
+      </c>
+      <c r="X89">
+        <f t="shared" si="30"/>
+        <v>14.180843717241487</v>
+      </c>
+      <c r="Y89">
+        <v>11.595021907327785</v>
+      </c>
+      <c r="Z89" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA89" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB89" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC89" t="str">
+        <f t="shared" si="34"/>
+        <v>UP</v>
+      </c>
+      <c r="AD89">
+        <f t="shared" si="35"/>
+        <v>1622.6000000000001</v>
+      </c>
+      <c r="AE89">
+        <f t="shared" si="36"/>
+        <v>1626.3000000000002</v>
+      </c>
+      <c r="AF89">
+        <f t="shared" si="37"/>
+        <v>1627.95</v>
+      </c>
+      <c r="AG89">
+        <f t="shared" si="38"/>
+        <v>1629.6000000000001</v>
+      </c>
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B90" s="1"/>
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="1">
+        <v>42984</v>
+      </c>
+      <c r="C90">
+        <v>1626.4</v>
+      </c>
+      <c r="D90">
+        <v>1652.5</v>
+      </c>
+      <c r="E90">
+        <v>1622.8</v>
+      </c>
+      <c r="F90">
+        <v>1644</v>
+      </c>
+      <c r="G90">
+        <f>_xll.TA_TYPPRICE(D90,E90,F90)</f>
+        <v>1639.7666666666667</v>
+      </c>
+      <c r="H90">
+        <v>1628.0814844202387</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J90">
+        <v>1618.4632396184065</v>
+      </c>
+      <c r="K90">
+        <v>1592.0330060704248</v>
+      </c>
+      <c r="L90" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M90" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N90">
+        <v>80.005925691427024</v>
+      </c>
+      <c r="O90" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P90" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="25"/>
+        <v>21.200000000000045</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="26"/>
+        <v>29.700000000000045</v>
+      </c>
+      <c r="S90">
+        <f t="shared" si="27"/>
+        <v>0.71380471380471422</v>
+      </c>
+      <c r="T90" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U90" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V90">
+        <v>1599.1872311473337</v>
+      </c>
+      <c r="W90">
+        <v>1581.8320474769093</v>
+      </c>
+      <c r="X90">
+        <f t="shared" si="30"/>
+        <v>17.355183670424367</v>
+      </c>
+      <c r="Y90">
+        <v>12.747054259947102</v>
+      </c>
+      <c r="Z90" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA90" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB90" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC90" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD90" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE90" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF90" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG90" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B91" s="1"/>
+      <c r="A91" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" s="1">
+        <v>42985</v>
+      </c>
+      <c r="C91">
+        <v>823</v>
+      </c>
+      <c r="D91">
+        <v>832.5</v>
+      </c>
+      <c r="E91">
+        <v>815</v>
+      </c>
+      <c r="F91">
+        <v>816.6</v>
+      </c>
+      <c r="G91">
+        <f>_xll.TA_TYPPRICE(D91,E91,F91)</f>
+        <v>821.36666666666667</v>
+      </c>
+      <c r="H91">
+        <v>1224.7240755434527</v>
+      </c>
+      <c r="I91" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J91">
+        <v>1443.8047419254274</v>
+      </c>
+      <c r="K91">
+        <v>1419.3590047214416</v>
+      </c>
+      <c r="L91" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M91" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N91">
+        <v>5.8257189187288345</v>
+      </c>
+      <c r="O91" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P91" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="25"/>
+        <v>1.6000000000000227</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="26"/>
+        <v>17.5</v>
+      </c>
+      <c r="S91">
+        <f t="shared" si="27"/>
+        <v>9.1428571428572733E-2</v>
+      </c>
+      <c r="T91" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U91" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V91">
+        <v>1478.7891955862056</v>
+      </c>
+      <c r="W91">
+        <v>1525.1481921082493</v>
+      </c>
+      <c r="X91">
+        <f t="shared" si="30"/>
+        <v>-46.358996522043753</v>
+      </c>
+      <c r="Y91">
+        <v>0.9258441035489291</v>
+      </c>
+      <c r="Z91" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA91" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB91" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC91" t="str">
+        <f t="shared" si="34"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AD91">
+        <f t="shared" si="35"/>
+        <v>830.5</v>
+      </c>
+      <c r="AE91">
+        <f t="shared" si="36"/>
+        <v>825.80000000000007</v>
+      </c>
+      <c r="AF91">
+        <f t="shared" si="37"/>
+        <v>823.75</v>
+      </c>
+      <c r="AG91">
+        <f t="shared" si="38"/>
+        <v>821.7</v>
+      </c>
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B92" s="1"/>
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" s="1">
+        <v>42986</v>
+      </c>
+      <c r="C92">
+        <v>820</v>
+      </c>
+      <c r="D92">
+        <v>823.25</v>
+      </c>
+      <c r="E92">
+        <v>812.1</v>
+      </c>
+      <c r="F92">
+        <v>816.95</v>
+      </c>
+      <c r="G92">
+        <f>_xll.TA_TYPPRICE(D92,E92,F92)</f>
+        <v>817.43333333333339</v>
+      </c>
+      <c r="H92">
+        <v>1021.0787044383931</v>
+      </c>
+      <c r="I92" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J92">
+        <v>1305.9036881642214</v>
+      </c>
+      <c r="K92">
+        <v>1284.4125592277878</v>
+      </c>
+      <c r="L92" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M92" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N92">
+        <v>5.8718663863106677</v>
+      </c>
+      <c r="O92" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P92" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="25"/>
+        <v>4.8500000000000227</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="26"/>
+        <v>11.149999999999977</v>
+      </c>
+      <c r="S92">
+        <f t="shared" si="27"/>
+        <v>0.43497757847533924</v>
+      </c>
+      <c r="T92" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U92" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V92">
+        <v>1376.9677808806355</v>
+      </c>
+      <c r="W92">
+        <v>1472.6890667668974</v>
+      </c>
+      <c r="X92">
+        <f t="shared" si="30"/>
+        <v>-95.721285886261967</v>
+      </c>
+      <c r="Y92">
+        <v>-18.40358189441325</v>
+      </c>
+      <c r="Z92" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA92" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB92" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC92" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD92" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE92" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF92" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG92" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B93" s="1"/>
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" s="1">
+        <v>42989</v>
+      </c>
+      <c r="C93">
+        <v>821.3</v>
+      </c>
+      <c r="D93">
+        <v>826.85</v>
+      </c>
+      <c r="E93">
+        <v>816.55</v>
+      </c>
+      <c r="F93">
+        <v>819.5</v>
+      </c>
+      <c r="G93">
+        <f>_xll.TA_TYPPRICE(D93,E93,F93)</f>
+        <v>820.9666666666667</v>
+      </c>
+      <c r="H93">
+        <v>921.02268555252988</v>
+      </c>
+      <c r="I93" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J93">
+        <v>1199.4473130166166</v>
+      </c>
+      <c r="K93">
+        <v>1180.4431016216126</v>
+      </c>
+      <c r="L93" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M93" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N93">
+        <v>6.2900657255023429</v>
+      </c>
+      <c r="O93" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P93" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="25"/>
+        <v>2.9500000000000455</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="26"/>
+        <v>10.300000000000068</v>
+      </c>
+      <c r="S93">
+        <f t="shared" si="27"/>
+        <v>0.2864077669902938</v>
+      </c>
+      <c r="T93" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U93" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V93">
+        <v>1291.2035068989992</v>
+      </c>
+      <c r="W93">
+        <v>1424.3046914508309</v>
+      </c>
+      <c r="X93">
+        <f t="shared" si="30"/>
+        <v>-133.10118455183169</v>
+      </c>
+      <c r="Y93">
+        <v>-41.343102425896944</v>
+      </c>
+      <c r="Z93" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA93" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB93" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC93" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD93" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE93" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF93" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG93" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B94" s="1"/>
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="1">
+        <v>42990</v>
+      </c>
+      <c r="C94">
+        <v>822.75</v>
+      </c>
+      <c r="D94">
+        <v>825</v>
+      </c>
+      <c r="E94">
+        <v>817</v>
+      </c>
+      <c r="F94">
+        <v>824.5</v>
+      </c>
+      <c r="G94">
+        <f>_xll.TA_TYPPRICE(D94,E94,F94)</f>
+        <v>822.16666666666663</v>
+      </c>
+      <c r="H94">
+        <v>871.59467610959825</v>
+      </c>
+      <c r="I94" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J94">
+        <v>1116.2367990129239</v>
+      </c>
+      <c r="K94">
+        <v>1099.6779679279209</v>
+      </c>
+      <c r="L94" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M94" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N94">
+        <v>7.2995178459233507</v>
+      </c>
+      <c r="O94" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P94" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="25"/>
+        <v>7.5</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="26"/>
+        <v>8</v>
+      </c>
+      <c r="S94">
+        <f t="shared" si="27"/>
+        <v>0.9375</v>
+      </c>
+      <c r="T94" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U94" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V94">
+        <v>1219.4029673760763</v>
+      </c>
+      <c r="W94">
+        <v>1379.8747143063249</v>
+      </c>
+      <c r="X94">
+        <f t="shared" si="30"/>
+        <v>-160.47174693024863</v>
+      </c>
+      <c r="Y94">
+        <v>-65.168831326767275</v>
+      </c>
+      <c r="Z94" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA94" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB94" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC94" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD94" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE94" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF94" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG94" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B95" s="1"/>
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" s="1">
+        <v>42991</v>
+      </c>
+      <c r="C95">
+        <v>824</v>
+      </c>
+      <c r="D95">
+        <v>859.9</v>
+      </c>
+      <c r="E95">
+        <v>822</v>
+      </c>
+      <c r="F95">
+        <v>853.4</v>
+      </c>
+      <c r="G95">
+        <f>_xll.TA_TYPPRICE(D95,E95,F95)</f>
+        <v>845.1</v>
+      </c>
+      <c r="H95">
+        <v>858.34733805479914</v>
+      </c>
+      <c r="I95" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J95">
+        <v>1059.2730658989408</v>
+      </c>
+      <c r="K95">
+        <v>1037.9717528328274</v>
+      </c>
+      <c r="L95" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M95" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N95">
+        <v>13.993280736959646</v>
+      </c>
+      <c r="O95" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P95" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="25"/>
+        <v>31.399999999999977</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="26"/>
+        <v>37.899999999999977</v>
+      </c>
+      <c r="S95">
+        <f t="shared" si="27"/>
+        <v>0.82849604221635875</v>
+      </c>
+      <c r="T95" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U95" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V95">
+        <v>1163.0948185489876</v>
+      </c>
+      <c r="W95">
+        <v>1340.8765873206712</v>
+      </c>
+      <c r="X95">
+        <f t="shared" si="30"/>
+        <v>-177.78176877168357</v>
+      </c>
+      <c r="Y95">
+        <v>-87.691418815750538</v>
+      </c>
+      <c r="Z95" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA95" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB95" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC95" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD95" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE95" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF95" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG95" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B96" s="1"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="1"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="1"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="1"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="1"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="1"/>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="1"/>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="1"/>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="1"/>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B105" s="1"/>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B106" s="1"/>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B107" s="1"/>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" s="1">
+        <v>42992</v>
+      </c>
+      <c r="C96">
+        <v>855.8</v>
+      </c>
+      <c r="D96">
+        <v>861.5</v>
+      </c>
+      <c r="E96">
+        <v>842</v>
+      </c>
+      <c r="F96">
+        <v>844.2</v>
+      </c>
+      <c r="G96">
+        <f>_xll.TA_TYPPRICE(D96,E96,F96)</f>
+        <v>849.23333333333323</v>
+      </c>
+      <c r="H96">
+        <v>853.79033569406624</v>
+      </c>
+      <c r="I96" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J96">
+        <v>1015.3234956991762</v>
+      </c>
+      <c r="K96">
+        <v>994.42247442553241</v>
+      </c>
+      <c r="L96" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M96" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N96">
+        <v>13.602435342006272</v>
+      </c>
+      <c r="O96" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P96" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="25"/>
+        <v>2.2000000000000455</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="26"/>
+        <v>19.5</v>
+      </c>
+      <c r="S96">
+        <f t="shared" si="27"/>
+        <v>0.11282051282051515</v>
+      </c>
+      <c r="T96" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U96" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V96">
+        <v>1114.0340772337588</v>
+      </c>
+      <c r="W96">
+        <v>1304.0857290006215</v>
+      </c>
+      <c r="X96">
+        <f t="shared" si="30"/>
+        <v>-190.05165176686273</v>
+      </c>
+      <c r="Y96">
+        <v>-108.16346540597297</v>
+      </c>
+      <c r="Z96" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA96" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB96" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC96" t="str">
+        <f t="shared" si="34"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AD96">
+        <f t="shared" si="35"/>
+        <v>859.30000000000007</v>
+      </c>
+      <c r="AE96">
+        <f t="shared" si="36"/>
+        <v>854.05000000000007</v>
+      </c>
+      <c r="AF96">
+        <f t="shared" si="37"/>
+        <v>851.75</v>
+      </c>
+      <c r="AG96">
+        <f t="shared" si="38"/>
+        <v>849.45</v>
+      </c>
+    </row>
+    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" s="1">
+        <v>42993</v>
+      </c>
+      <c r="C97">
+        <v>842</v>
+      </c>
+      <c r="D97">
+        <v>852.85</v>
+      </c>
+      <c r="E97">
+        <v>834.75</v>
+      </c>
+      <c r="F97">
+        <v>842</v>
+      </c>
+      <c r="G97">
+        <f>_xll.TA_TYPPRICE(D97,E97,F97)</f>
+        <v>843.19999999999993</v>
+      </c>
+      <c r="H97">
+        <v>848.49516784703314</v>
+      </c>
+      <c r="I97" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J97">
+        <v>979.21827443269262</v>
+      </c>
+      <c r="K97">
+        <v>958.93970233096968</v>
+      </c>
+      <c r="L97" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M97" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N97">
+        <v>13.489809992622487</v>
+      </c>
+      <c r="O97" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P97" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="25"/>
+        <v>7.25</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="26"/>
+        <v>18.100000000000023</v>
+      </c>
+      <c r="S97">
+        <f t="shared" si="27"/>
+        <v>0.40055248618784478</v>
+      </c>
+      <c r="T97" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U97" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V97">
+        <v>1072.1826807362575</v>
+      </c>
+      <c r="W97">
+        <v>1269.857156482057</v>
+      </c>
+      <c r="X97">
+        <f t="shared" si="30"/>
+        <v>-197.67447574579955</v>
+      </c>
+      <c r="Y97">
+        <v>-126.06566747393829</v>
+      </c>
+      <c r="Z97" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA97" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB97" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC97" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD97" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE97" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF97" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG97" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" s="1">
+        <v>42996</v>
+      </c>
+      <c r="C98">
+        <v>850</v>
+      </c>
+      <c r="D98">
+        <v>851.05</v>
+      </c>
+      <c r="E98">
+        <v>843.1</v>
+      </c>
+      <c r="F98">
+        <v>845.2</v>
+      </c>
+      <c r="G98">
+        <f>_xll.TA_TYPPRICE(D98,E98,F98)</f>
+        <v>846.45000000000016</v>
+      </c>
+      <c r="H98">
+        <v>847.47258392351659</v>
+      </c>
+      <c r="I98" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J98">
+        <v>950.73643566987198</v>
+      </c>
+      <c r="K98">
+        <v>933.19754625742087</v>
+      </c>
+      <c r="L98" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M98" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N98">
+        <v>14.77283416346048</v>
+      </c>
+      <c r="O98" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P98" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="25"/>
+        <v>2.1000000000000227</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="26"/>
+        <v>7.9499999999999318</v>
+      </c>
+      <c r="S98">
+        <f t="shared" si="27"/>
+        <v>0.26415094339623152</v>
+      </c>
+      <c r="T98" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U98" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V98">
+        <v>1037.2622683152947</v>
+      </c>
+      <c r="W98">
+        <v>1238.4010708167195</v>
+      </c>
+      <c r="X98">
+        <f t="shared" si="30"/>
+        <v>-201.13880250142483</v>
+      </c>
+      <c r="Y98">
+        <v>-141.08029447943559</v>
+      </c>
+      <c r="Z98" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA98" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB98" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC98" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD98" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE98" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF98" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG98" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" s="1">
+        <v>42997</v>
+      </c>
+      <c r="C99">
+        <v>848.7</v>
+      </c>
+      <c r="D99">
+        <v>848.75</v>
+      </c>
+      <c r="E99">
+        <v>837</v>
+      </c>
+      <c r="F99">
+        <v>839</v>
+      </c>
+      <c r="G99">
+        <f>_xll.TA_TYPPRICE(D99,E99,F99)</f>
+        <v>841.58333333333337</v>
+      </c>
+      <c r="H99">
+        <v>844.52795862842504</v>
+      </c>
+      <c r="I99" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J99">
+        <v>928.07278329878932</v>
+      </c>
+      <c r="K99">
+        <v>911.82031375577174</v>
+      </c>
+      <c r="L99" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M99" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N99">
+        <v>14.260613031377837</v>
+      </c>
+      <c r="O99" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P99" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="25"/>
+        <v>2</v>
+      </c>
+      <c r="R99">
+        <f t="shared" si="26"/>
+        <v>11.75</v>
+      </c>
+      <c r="S99">
+        <f t="shared" si="27"/>
+        <v>0.1702127659574468</v>
+      </c>
+      <c r="T99" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U99" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V99">
+        <v>1006.7603808821724</v>
+      </c>
+      <c r="W99">
+        <v>1208.8158063117774</v>
+      </c>
+      <c r="X99">
+        <f t="shared" si="30"/>
+        <v>-202.05542542960495</v>
+      </c>
+      <c r="Y99">
+        <v>-153.27532066946947</v>
+      </c>
+      <c r="Z99" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA99" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB99" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC99" t="str">
+        <f t="shared" si="34"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AD99">
+        <f t="shared" si="35"/>
+        <v>847.40000000000009</v>
+      </c>
+      <c r="AE99">
+        <f t="shared" si="36"/>
+        <v>844.25</v>
+      </c>
+      <c r="AF99">
+        <f t="shared" si="37"/>
+        <v>842.90000000000009</v>
+      </c>
+      <c r="AG99">
+        <f t="shared" si="38"/>
+        <v>841.5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" s="1">
+        <v>42998</v>
+      </c>
+      <c r="C100">
+        <v>856.1</v>
+      </c>
+      <c r="D100">
+        <v>872.5</v>
+      </c>
+      <c r="E100">
+        <v>845.1</v>
+      </c>
+      <c r="F100">
+        <v>848</v>
+      </c>
+      <c r="G100">
+        <f>_xll.TA_TYPPRICE(D100,E100,F100)</f>
+        <v>855.19999999999993</v>
+      </c>
+      <c r="H100">
+        <v>849.86397931421243</v>
+      </c>
+      <c r="I100" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J100">
+        <v>915.72327589905831</v>
+      </c>
+      <c r="K100">
+        <v>896.99357736560023</v>
+      </c>
+      <c r="L100" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M100" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N100">
+        <v>19.335616253428256</v>
+      </c>
+      <c r="O100" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P100" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="25"/>
+        <v>2.8999999999999773</v>
+      </c>
+      <c r="R100">
+        <f t="shared" si="26"/>
+        <v>27.399999999999977</v>
+      </c>
+      <c r="S100">
+        <f t="shared" si="27"/>
+        <v>0.10583941605839342</v>
+      </c>
+      <c r="T100" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U100" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V100">
+        <v>982.33570690029967</v>
+      </c>
+      <c r="W100">
+        <v>1182.088709547942</v>
+      </c>
+      <c r="X100">
+        <f t="shared" si="30"/>
+        <v>-199.75300264764235</v>
+      </c>
+      <c r="Y100">
+        <v>-162.57085706510404</v>
+      </c>
+      <c r="Z100" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA100" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB100" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC100" t="str">
+        <f t="shared" si="34"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AD100">
+        <f t="shared" si="35"/>
+        <v>869.40000000000009</v>
+      </c>
+      <c r="AE100">
+        <f t="shared" si="36"/>
+        <v>862.05000000000007</v>
+      </c>
+      <c r="AF100">
+        <f t="shared" si="37"/>
+        <v>858.80000000000007</v>
+      </c>
+      <c r="AG100">
+        <f t="shared" si="38"/>
+        <v>855.55000000000007</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" s="1">
+        <v>42999</v>
+      </c>
+      <c r="C101">
+        <v>847</v>
+      </c>
+      <c r="D101">
+        <v>851.7</v>
+      </c>
+      <c r="E101">
+        <v>836.25</v>
+      </c>
+      <c r="F101">
+        <v>842.95</v>
+      </c>
+      <c r="G101">
+        <f>_xll.TA_TYPPRICE(D101,E101,F101)</f>
+        <v>843.63333333333333</v>
+      </c>
+      <c r="H101">
+        <v>846.74865632377282</v>
+      </c>
+      <c r="I101" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J101">
+        <v>901.49588125482319</v>
+      </c>
+      <c r="K101">
+        <v>883.49500461768912</v>
+      </c>
+      <c r="L101" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M101" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N101">
+        <v>18.564877974321064</v>
+      </c>
+      <c r="O101" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P101" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="25"/>
+        <v>6.7000000000000455</v>
+      </c>
+      <c r="R101">
+        <f t="shared" si="26"/>
+        <v>15.450000000000045</v>
+      </c>
+      <c r="S101">
+        <f t="shared" si="27"/>
+        <v>0.43365695792880427</v>
+      </c>
+      <c r="T101" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U101" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V101">
+        <v>960.89175199256124</v>
+      </c>
+      <c r="W101">
+        <v>1156.9673236555018</v>
+      </c>
+      <c r="X101">
+        <f t="shared" si="30"/>
+        <v>-196.07557166294055</v>
+      </c>
+      <c r="Y101">
+        <v>-169.27179998467133</v>
+      </c>
+      <c r="Z101" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA101" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB101" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC101" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD101" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE101" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF101" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG101" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" s="1">
+        <v>43000</v>
+      </c>
+      <c r="C102">
+        <v>839.9</v>
+      </c>
+      <c r="D102">
+        <v>839.9</v>
+      </c>
+      <c r="E102">
+        <v>813.2</v>
+      </c>
+      <c r="F102">
+        <v>816.95</v>
+      </c>
+      <c r="G102">
+        <f>_xll.TA_TYPPRICE(D102,E102,F102)</f>
+        <v>823.35</v>
+      </c>
+      <c r="H102">
+        <v>835.04932816188648</v>
+      </c>
+      <c r="I102" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J102">
+        <v>887.8079076426402</v>
+      </c>
+      <c r="K102">
+        <v>867.87389248042484</v>
+      </c>
+      <c r="L102" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M102" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N102">
+        <v>14.774700267820728</v>
+      </c>
+      <c r="O102" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P102" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" si="25"/>
+        <v>3.75</v>
+      </c>
+      <c r="R102">
+        <f t="shared" si="26"/>
+        <v>26.699999999999932</v>
+      </c>
+      <c r="S102">
+        <f t="shared" si="27"/>
+        <v>0.14044943820224756</v>
+      </c>
+      <c r="T102" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U102" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V102">
+        <v>938.7468670706287</v>
+      </c>
+      <c r="W102">
+        <v>1131.7808552365757</v>
+      </c>
+      <c r="X102">
+        <f t="shared" si="30"/>
+        <v>-193.03398816594699</v>
+      </c>
+      <c r="Y102">
+        <v>-174.02423762092647</v>
+      </c>
+      <c r="Z102" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA102" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB102" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC102" t="str">
+        <f t="shared" si="34"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AD102">
+        <f t="shared" si="35"/>
+        <v>836.85</v>
+      </c>
+      <c r="AE102">
+        <f t="shared" si="36"/>
+        <v>829.7</v>
+      </c>
+      <c r="AF102">
+        <f t="shared" si="37"/>
+        <v>826.55000000000007</v>
+      </c>
+      <c r="AG102">
+        <f t="shared" si="38"/>
+        <v>823.40000000000009</v>
+      </c>
+    </row>
+    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" s="1">
+        <v>43003</v>
+      </c>
+      <c r="C103">
+        <v>815</v>
+      </c>
+      <c r="D103">
+        <v>827.95</v>
+      </c>
+      <c r="E103">
+        <v>805.2</v>
+      </c>
+      <c r="F103">
+        <v>821</v>
+      </c>
+      <c r="G103">
+        <f>_xll.TA_TYPPRICE(D103,E103,F103)</f>
+        <v>818.05000000000007</v>
+      </c>
+      <c r="H103">
+        <v>826.54966408094333</v>
+      </c>
+      <c r="I103" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J103">
+        <v>874.50615038872013</v>
+      </c>
+      <c r="K103">
+        <v>853.94636081810825</v>
+      </c>
+      <c r="L103" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M103" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N103">
+        <v>18.033051733290126</v>
+      </c>
+      <c r="O103" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P103" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q103">
+        <f t="shared" si="25"/>
+        <v>15.799999999999955</v>
+      </c>
+      <c r="R103">
+        <f t="shared" si="26"/>
+        <v>22.75</v>
+      </c>
+      <c r="S103">
+        <f t="shared" si="27"/>
+        <v>0.69450549450549248</v>
+      </c>
+      <c r="T103" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U103" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V103">
+        <v>920.63196444437813</v>
+      </c>
+      <c r="W103">
+        <v>1108.7600511449775</v>
+      </c>
+      <c r="X103">
+        <f t="shared" si="30"/>
+        <v>-188.1280867005994</v>
+      </c>
+      <c r="Y103">
+        <v>-176.84500743686107</v>
+      </c>
+      <c r="Z103" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA103" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB103" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC103" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD103" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE103" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF103" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG103" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" s="1">
+        <v>43004</v>
+      </c>
+      <c r="C104">
+        <v>821.7</v>
+      </c>
+      <c r="D104">
+        <v>827.05</v>
+      </c>
+      <c r="E104">
+        <v>812.2</v>
+      </c>
+      <c r="F104">
+        <v>819.2</v>
+      </c>
+      <c r="G104">
+        <f>_xll.TA_TYPPRICE(D104,E104,F104)</f>
+        <v>819.48333333333323</v>
+      </c>
+      <c r="H104">
+        <v>823.01649870713823</v>
+      </c>
+      <c r="I104" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J104">
+        <v>863.96033919122681</v>
+      </c>
+      <c r="K104">
+        <v>844.66939174741754</v>
+      </c>
+      <c r="L104" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M104" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N104">
+        <v>17.657993893393378</v>
+      </c>
+      <c r="O104" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P104" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q104">
+        <f t="shared" si="25"/>
+        <v>7</v>
+      </c>
+      <c r="R104">
+        <f t="shared" si="26"/>
+        <v>14.849999999999909</v>
+      </c>
+      <c r="S104">
+        <f t="shared" si="27"/>
+        <v>0.47138047138047429</v>
+      </c>
+      <c r="T104" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U104" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V104">
+        <v>905.02704683755076</v>
+      </c>
+      <c r="W104">
+        <v>1087.3111584675719</v>
+      </c>
+      <c r="X104">
+        <f t="shared" si="30"/>
+        <v>-182.28411163002113</v>
+      </c>
+      <c r="Y104">
+        <v>-177.93282827549308</v>
+      </c>
+      <c r="Z104" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA104" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB104" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC104" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD104" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE104" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF104" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG104" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B105" s="1">
+        <v>43005</v>
+      </c>
+      <c r="C105">
+        <v>825.6</v>
+      </c>
+      <c r="D105">
+        <v>825.7</v>
+      </c>
+      <c r="E105">
+        <v>795.5</v>
+      </c>
+      <c r="F105">
+        <v>798.4</v>
+      </c>
+      <c r="G105">
+        <f>_xll.TA_TYPPRICE(D105,E105,F105)</f>
+        <v>806.5333333333333</v>
+      </c>
+      <c r="H105">
+        <v>814.77491602023576</v>
+      </c>
+      <c r="I105" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J105">
+        <v>855.4580415931764</v>
+      </c>
+      <c r="K105">
+        <v>833.74286024799142</v>
+      </c>
+      <c r="L105" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M105" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N105">
+        <v>13.578677894646349</v>
+      </c>
+      <c r="O105" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P105" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q105">
+        <f t="shared" si="25"/>
+        <v>2.8999999999999773</v>
+      </c>
+      <c r="R105">
+        <f t="shared" si="26"/>
+        <v>30.200000000000045</v>
+      </c>
+      <c r="S105">
+        <f t="shared" si="27"/>
+        <v>9.6026490066224268E-2</v>
+      </c>
+      <c r="T105" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U105" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V105">
+        <v>888.62288578561981</v>
+      </c>
+      <c r="W105">
+        <v>1065.9103319144185</v>
+      </c>
+      <c r="X105">
+        <f t="shared" si="30"/>
+        <v>-177.28744612879871</v>
+      </c>
+      <c r="Y105">
+        <v>-177.8037518461542</v>
+      </c>
+      <c r="Z105" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA105" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB105" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC105" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD105" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE105" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF105" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG105" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B106" s="1">
+        <v>43006</v>
+      </c>
+      <c r="C106">
+        <v>799.65</v>
+      </c>
+      <c r="D106">
+        <v>802.9</v>
+      </c>
+      <c r="E106">
+        <v>780.2</v>
+      </c>
+      <c r="F106">
+        <v>786.25</v>
+      </c>
+      <c r="G106">
+        <f>_xll.TA_TYPPRICE(D106,E106,F106)</f>
+        <v>789.7833333333333</v>
+      </c>
+      <c r="H106">
+        <v>802.27912467678448</v>
+      </c>
+      <c r="I106" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J106">
+        <v>843.77847679469278</v>
+      </c>
+      <c r="K106">
+        <v>821.84444685954884</v>
+      </c>
+      <c r="L106" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M106" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N106">
+        <v>11.618795351434917</v>
+      </c>
+      <c r="O106" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P106" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q106">
+        <f t="shared" si="25"/>
+        <v>6.0499999999999545</v>
+      </c>
+      <c r="R106">
+        <f t="shared" si="26"/>
+        <v>22.699999999999932</v>
+      </c>
+      <c r="S106">
+        <f t="shared" si="27"/>
+        <v>0.26651982378854505</v>
+      </c>
+      <c r="T106" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U106" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V106">
+        <v>872.87321104937064</v>
+      </c>
+      <c r="W106">
+        <v>1045.1947517726098</v>
+      </c>
+      <c r="X106">
+        <f t="shared" si="30"/>
+        <v>-172.3215407232392</v>
+      </c>
+      <c r="Y106">
+        <v>-176.7073096215712</v>
+      </c>
+      <c r="Z106" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA106" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB106" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC106" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD106" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE106" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF106" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG106" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B107" s="1">
+        <v>43007</v>
+      </c>
+      <c r="C107">
+        <v>791.75</v>
+      </c>
+      <c r="D107">
+        <v>793.4</v>
+      </c>
+      <c r="E107">
+        <v>779.1</v>
+      </c>
+      <c r="F107">
+        <v>781.2</v>
+      </c>
+      <c r="G107">
+        <f>_xll.TA_TYPPRICE(D107,E107,F107)</f>
+        <v>784.56666666666661</v>
+      </c>
+      <c r="H107">
+        <v>793.42289567172554</v>
+      </c>
+      <c r="I107" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J107">
+        <v>832.58325972920545</v>
+      </c>
+      <c r="K107">
+        <v>812.34568089076026</v>
+      </c>
+      <c r="L107" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M107" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N107">
+        <v>10.808292129041593</v>
+      </c>
+      <c r="O107" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P107" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q107">
+        <f t="shared" si="25"/>
+        <v>2.1000000000000227</v>
+      </c>
+      <c r="R107">
+        <f t="shared" si="26"/>
+        <v>14.299999999999955</v>
+      </c>
+      <c r="S107">
+        <f t="shared" si="27"/>
+        <v>0.1468531468531489</v>
+      </c>
+      <c r="T107" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U107" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V107">
+        <v>858.76964011869825</v>
+      </c>
+      <c r="W107">
+        <v>1025.6395849746386</v>
+      </c>
+      <c r="X107">
+        <f t="shared" si="30"/>
+        <v>-166.86994485594039</v>
+      </c>
+      <c r="Y107">
+        <v>-174.73983666844504</v>
+      </c>
+      <c r="Z107" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA107" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB107" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC107" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD107" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE107" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF107" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG107" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
